--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/ILLINOIS_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/ILLINOIS_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1833"/>
+  <dimension ref="A1:D1827"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C34">
@@ -856,13 +856,13 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C37">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C39">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C47">
@@ -1051,13 +1051,13 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C52">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C73">
@@ -1350,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="75">
@@ -1389,13 +1389,13 @@
         <v>6</v>
       </c>
       <c r="D77">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C78">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C86">
@@ -1512,7 +1512,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C87">
@@ -1532,7 +1532,7 @@
         <v>6</v>
       </c>
       <c r="D88">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="89">
@@ -1649,7 +1649,7 @@
         <v>6</v>
       </c>
       <c r="D97">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="98">
@@ -1810,7 +1810,7 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="110">
@@ -1888,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="D115">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="116">
@@ -1946,7 +1946,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C120">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C128">
@@ -2076,7 +2076,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C130">
@@ -2271,7 +2271,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C145">
@@ -2284,7 +2284,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C146">
@@ -2330,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="D149">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="150">
@@ -2614,7 +2614,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C171">
@@ -2717,7 +2717,7 @@
         <v>6</v>
       </c>
       <c r="D178">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="179">
@@ -2827,7 +2827,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C187">
@@ -2853,7 +2853,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2904,13 +2904,13 @@
         <v>579</v>
       </c>
       <c r="D192">
-        <v>0.009264148226371623</v>
+        <v>0.009264148226371624</v>
       </c>
     </row>
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C193">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C208">
@@ -3273,7 +3273,7 @@
         <v>6</v>
       </c>
       <c r="D220">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="221">
@@ -3286,13 +3286,13 @@
         <v>6</v>
       </c>
       <c r="D221">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C222">
@@ -3344,7 +3344,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C226">
@@ -3435,7 +3435,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C233">
@@ -3448,7 +3448,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C234">
@@ -3461,7 +3461,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C235">
@@ -3591,12 +3591,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C245">
@@ -3616,7 +3616,7 @@
         <v>6</v>
       </c>
       <c r="D246">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="247">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C248">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C249">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C250">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C257">
@@ -3830,14 +3830,14 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C263">
         <v>6</v>
       </c>
       <c r="D263">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="264">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C267">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C274">
@@ -3993,7 +3993,7 @@
         <v>6</v>
       </c>
       <c r="D275">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="276">
@@ -4077,7 +4077,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C282">
@@ -4090,7 +4090,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C283">
@@ -4214,7 +4214,7 @@
         <v>6</v>
       </c>
       <c r="D292">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="293">
@@ -4253,7 +4253,7 @@
         <v>6</v>
       </c>
       <c r="D295">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="296">
@@ -4285,7 +4285,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C298">
@@ -4415,7 +4415,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C308">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C309">
@@ -4454,14 +4454,14 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C311">
         <v>6</v>
       </c>
       <c r="D311">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="312">
@@ -4480,7 +4480,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C313">
@@ -4610,7 +4610,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C323">
@@ -4623,7 +4623,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C324">
@@ -4669,7 +4669,7 @@
         <v>6</v>
       </c>
       <c r="D327">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="328">
@@ -4682,7 +4682,7 @@
         <v>6</v>
       </c>
       <c r="D328">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="329">
@@ -4792,7 +4792,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C337">
@@ -4870,7 +4870,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C343">
@@ -4883,7 +4883,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C344">
@@ -4896,7 +4896,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C345">
@@ -4909,7 +4909,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C346">
@@ -5020,7 +5020,7 @@
         <v>6</v>
       </c>
       <c r="D354">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="355">
@@ -5096,7 +5096,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C360">
@@ -5109,7 +5109,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C361">
@@ -5213,7 +5213,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C369">
@@ -5265,7 +5265,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C373">
@@ -5369,7 +5369,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C381">
@@ -5421,7 +5421,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C385">
@@ -5441,13 +5441,13 @@
         <v>59</v>
       </c>
       <c r="D386">
-        <v>0.0009440151042416679</v>
+        <v>0.000944015104241668</v>
       </c>
     </row>
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C387">
@@ -5473,7 +5473,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C389">
@@ -5486,7 +5486,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C390">
@@ -5512,7 +5512,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C392">
@@ -5577,7 +5577,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C397">
@@ -5649,7 +5649,7 @@
         <v>5965</v>
       </c>
       <c r="D402">
-        <v>0.09544152706443303</v>
+        <v>0.09544152706443304</v>
       </c>
     </row>
     <row r="403">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C403">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C406">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C407">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C411">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C412">
@@ -5803,7 +5803,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C414">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C415">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C418">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C419">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C420">
@@ -5894,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C421">
@@ -5959,7 +5959,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C426">
@@ -5972,7 +5972,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C427">
@@ -6024,7 +6024,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C431">
@@ -6037,7 +6037,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C432">
@@ -6115,7 +6115,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C438">
@@ -6128,7 +6128,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C439">
@@ -6154,7 +6154,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C441">
@@ -6167,7 +6167,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C442">
@@ -6193,7 +6193,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C444">
@@ -6232,7 +6232,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C447">
@@ -6395,13 +6395,13 @@
         <v>59</v>
       </c>
       <c r="D459">
-        <v>0.0009440151042416679</v>
+        <v>0.000944015104241668</v>
       </c>
     </row>
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C460">
@@ -6427,7 +6427,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C462">
@@ -6453,7 +6453,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C464">
@@ -6479,7 +6479,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C466">
@@ -6518,7 +6518,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C469">
@@ -6531,7 +6531,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C470">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C482">
@@ -6770,7 +6770,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C488">
@@ -6783,7 +6783,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C489">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C495">
@@ -6894,7 +6894,7 @@
         <v>6</v>
       </c>
       <c r="D497">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="498">
@@ -6939,7 +6939,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C501">
@@ -6991,7 +6991,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C505">
@@ -7030,7 +7030,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C508">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C513">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C514">
@@ -7121,7 +7121,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C515">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C516">
@@ -7160,7 +7160,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C518">
@@ -7173,7 +7173,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C519">
@@ -7186,7 +7186,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C520">
@@ -7225,7 +7225,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C523">
@@ -7290,7 +7290,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C528">
@@ -7303,7 +7303,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C529">
@@ -7323,7 +7323,7 @@
         <v>6</v>
       </c>
       <c r="D530">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="531">
@@ -7355,7 +7355,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C533">
@@ -7381,7 +7381,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C535">
@@ -7394,7 +7394,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C536">
@@ -7433,7 +7433,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C539">
@@ -7531,13 +7531,13 @@
         <v>6</v>
       </c>
       <c r="D546">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C547">
@@ -7550,7 +7550,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C548">
@@ -7563,7 +7563,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C549">
@@ -7589,7 +7589,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C551">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C556">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C557">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C562">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C565">
@@ -7796,13 +7796,13 @@
         <v>6</v>
       </c>
       <c r="D566">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C567">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C572">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C578">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C579">
@@ -8075,7 +8075,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C588">
@@ -8166,7 +8166,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C595">
@@ -8179,7 +8179,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C596">
@@ -8192,14 +8192,14 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C597">
         <v>6</v>
       </c>
       <c r="D597">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="598">
@@ -8244,7 +8244,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C601">
@@ -8264,7 +8264,7 @@
         <v>6</v>
       </c>
       <c r="D602">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="603">
@@ -8277,7 +8277,7 @@
         <v>6</v>
       </c>
       <c r="D603">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="604">
@@ -8322,7 +8322,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C607">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C608">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C615">
@@ -8491,7 +8491,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C620">
@@ -8504,7 +8504,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C621">
@@ -8530,7 +8530,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C623">
@@ -8569,7 +8569,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C626">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C628">
@@ -8608,7 +8608,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C629">
@@ -8621,7 +8621,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C630">
@@ -8634,7 +8634,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C631">
@@ -8673,7 +8673,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C634">
@@ -8686,7 +8686,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C635">
@@ -8712,7 +8712,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C637">
@@ -8764,7 +8764,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C641">
@@ -8777,7 +8777,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C642">
@@ -8816,7 +8816,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C645">
@@ -8829,7 +8829,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C646">
@@ -8985,7 +8985,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C658">
@@ -8998,7 +8998,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C659">
@@ -9011,7 +9011,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C660">
@@ -9024,7 +9024,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C661">
@@ -9089,7 +9089,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C666">
@@ -9102,7 +9102,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C667">
@@ -9141,7 +9141,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C670">
@@ -9154,7 +9154,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C671">
@@ -9167,7 +9167,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C672">
@@ -9465,7 +9465,7 @@
         <v>6</v>
       </c>
       <c r="D694">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="695">
@@ -9510,7 +9510,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C698">
@@ -9536,7 +9536,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C700">
@@ -9725,7 +9725,7 @@
         <v>57</v>
       </c>
       <c r="D714">
-        <v>0.0009120145922334757</v>
+        <v>0.0009120145922334756</v>
       </c>
     </row>
     <row r="715">
@@ -10407,7 +10407,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C767">
@@ -10705,7 +10705,7 @@
         <v>57</v>
       </c>
       <c r="D789">
-        <v>0.0009120145922334757</v>
+        <v>0.0009120145922334756</v>
       </c>
     </row>
     <row r="790">
@@ -10750,7 +10750,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C793">
@@ -10854,7 +10854,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C801">
@@ -10906,7 +10906,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C805">
@@ -10984,7 +10984,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C811">
@@ -10997,7 +10997,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C812">
@@ -11101,7 +11101,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C820">
@@ -11158,7 +11158,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C824">
@@ -11171,7 +11171,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C825">
@@ -11197,7 +11197,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C827">
@@ -11269,7 +11269,7 @@
         <v>6</v>
       </c>
       <c r="D832">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="833">
@@ -11288,7 +11288,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C834">
@@ -11560,7 +11560,7 @@
         <v>6</v>
       </c>
       <c r="D854">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="855">
@@ -11605,7 +11605,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C858">
@@ -11618,7 +11618,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C859">
@@ -11696,7 +11696,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C865">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C871">
@@ -11870,7 +11870,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C878">
@@ -11896,7 +11896,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C880">
@@ -11909,7 +11909,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C881">
@@ -11948,7 +11948,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C884">
@@ -11987,7 +11987,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C887">
@@ -12026,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C890">
@@ -12052,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C892">
@@ -12065,7 +12065,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C893">
@@ -12078,7 +12078,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C894">
@@ -12091,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C895">
@@ -12104,7 +12104,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C896">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C897">
@@ -12228,13 +12228,13 @@
         <v>6</v>
       </c>
       <c r="D905">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C906">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C908">
@@ -12286,7 +12286,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C910">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C911">
@@ -12338,14 +12338,14 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C914">
         <v>6</v>
       </c>
       <c r="D914">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="915">
@@ -12364,7 +12364,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C916">
@@ -12377,7 +12377,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C917">
@@ -12390,7 +12390,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C918">
@@ -12416,7 +12416,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C920">
@@ -12429,7 +12429,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C921">
@@ -12494,7 +12494,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C926">
@@ -12650,7 +12650,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C938">
@@ -12715,7 +12715,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C943">
@@ -12845,7 +12845,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C953">
@@ -12884,7 +12884,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C956">
@@ -13131,7 +13131,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C975">
@@ -13203,13 +13203,13 @@
         <v>6</v>
       </c>
       <c r="D980">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C981">
@@ -13424,7 +13424,7 @@
         <v>6</v>
       </c>
       <c r="D997">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="998">
@@ -13638,7 +13638,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1014">
@@ -13703,7 +13703,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1019">
@@ -13833,20 +13833,20 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1029">
         <v>6</v>
       </c>
       <c r="D1029">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1030">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1048">
@@ -14113,7 +14113,7 @@
         <v>6</v>
       </c>
       <c r="D1050">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1051">
@@ -14145,7 +14145,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1053">
@@ -14178,7 +14178,7 @@
         <v>6</v>
       </c>
       <c r="D1055">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1056">
@@ -14321,7 +14321,7 @@
         <v>6</v>
       </c>
       <c r="D1066">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1067">
@@ -14353,7 +14353,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1069">
@@ -14366,7 +14366,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1070">
@@ -14379,7 +14379,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1071">
@@ -14516,7 +14516,7 @@
         <v>6</v>
       </c>
       <c r="D1081">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1082">
@@ -14626,7 +14626,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1090">
@@ -14678,7 +14678,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1094">
@@ -14691,7 +14691,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1095">
@@ -14717,7 +14717,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1097">
@@ -14899,7 +14899,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1111">
@@ -15036,7 +15036,7 @@
         <v>6</v>
       </c>
       <c r="D1121">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1122">
@@ -15166,7 +15166,7 @@
         <v>6</v>
       </c>
       <c r="D1131">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1132">
@@ -15432,7 +15432,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1152">
@@ -15588,7 +15588,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1164">
@@ -15601,20 +15601,20 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1165">
         <v>6</v>
       </c>
       <c r="D1165">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1166">
@@ -15627,7 +15627,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1167">
@@ -15653,7 +15653,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1169">
@@ -15666,7 +15666,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1170">
@@ -15679,7 +15679,7 @@
     <row r="1171">
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1171">
@@ -15692,7 +15692,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1172">
@@ -15718,7 +15718,7 @@
     <row r="1174">
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1174">
@@ -15731,20 +15731,20 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1175">
         <v>60</v>
       </c>
       <c r="D1175">
-        <v>0.0009600153602457639</v>
+        <v>0.000960015360245764</v>
       </c>
     </row>
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1176">
@@ -15770,7 +15770,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1178">
@@ -15783,7 +15783,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1179">
@@ -15822,7 +15822,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1182">
@@ -15861,7 +15861,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1185">
@@ -15990,7 +15990,7 @@
         <v>6</v>
       </c>
       <c r="D1194">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1195">
@@ -16178,7 +16178,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1209">
@@ -16211,7 +16211,7 @@
         <v>6</v>
       </c>
       <c r="D1211">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1212">
@@ -16230,7 +16230,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1213">
@@ -16302,7 +16302,7 @@
         <v>59</v>
       </c>
       <c r="D1218">
-        <v>0.0009440151042416679</v>
+        <v>0.000944015104241668</v>
       </c>
     </row>
     <row r="1219">
@@ -16347,7 +16347,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1222">
@@ -16367,7 +16367,7 @@
         <v>6</v>
       </c>
       <c r="D1223">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1224">
@@ -16445,7 +16445,7 @@
         <v>6</v>
       </c>
       <c r="D1229">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1230">
@@ -16516,7 +16516,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1235">
@@ -16529,14 +16529,14 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1236">
         <v>6</v>
       </c>
       <c r="D1236">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1237">
@@ -16724,7 +16724,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1251">
@@ -16776,7 +16776,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1255">
@@ -16789,7 +16789,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1256">
@@ -16841,7 +16841,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1260">
@@ -16939,7 +16939,7 @@
         <v>6</v>
       </c>
       <c r="D1267">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1268">
@@ -16952,7 +16952,7 @@
         <v>6</v>
       </c>
       <c r="D1268">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1269">
@@ -16971,7 +16971,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1270">
@@ -17069,7 +17069,7 @@
         <v>6</v>
       </c>
       <c r="D1277">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1278">
@@ -17088,7 +17088,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1279">
@@ -17374,7 +17374,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1301">
@@ -17426,7 +17426,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1305">
@@ -17439,7 +17439,7 @@
     <row r="1306">
       <c r="B1306" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1306">
@@ -17608,7 +17608,7 @@
     <row r="1319">
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1319">
@@ -17621,7 +17621,7 @@
     <row r="1320">
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1320">
@@ -17634,7 +17634,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1321">
@@ -17699,7 +17699,7 @@
     <row r="1326">
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1326">
@@ -17725,7 +17725,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1328">
@@ -17738,7 +17738,7 @@
     <row r="1329">
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1329">
@@ -17771,7 +17771,7 @@
         <v>6</v>
       </c>
       <c r="D1331">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1332">
@@ -17803,7 +17803,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1334">
@@ -17823,7 +17823,7 @@
         <v>60</v>
       </c>
       <c r="D1335">
-        <v>0.0009600153602457639</v>
+        <v>0.000960015360245764</v>
       </c>
     </row>
     <row r="1336">
@@ -17933,7 +17933,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1344">
@@ -17998,7 +17998,7 @@
     <row r="1349">
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1349">
@@ -18063,7 +18063,7 @@
     <row r="1354">
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1354">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1369">
@@ -18289,7 +18289,7 @@
     <row r="1371">
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1371">
@@ -18348,13 +18348,13 @@
         <v>6</v>
       </c>
       <c r="D1375">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1376">
@@ -18367,7 +18367,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1377">
@@ -18406,7 +18406,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1380">
@@ -18432,7 +18432,7 @@
     <row r="1382">
       <c r="B1382" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1382">
@@ -18585,7 +18585,7 @@
     <row r="1393">
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1393">
@@ -18598,7 +18598,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1394">
@@ -18618,7 +18618,7 @@
         <v>6</v>
       </c>
       <c r="D1395">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1396">
@@ -18663,7 +18663,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1399">
@@ -18793,7 +18793,7 @@
     <row r="1409">
       <c r="B1409" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1409">
@@ -18871,7 +18871,7 @@
     <row r="1415">
       <c r="B1415" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1415">
@@ -18936,7 +18936,7 @@
     <row r="1420">
       <c r="B1420" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1420">
@@ -18962,7 +18962,7 @@
     <row r="1422">
       <c r="B1422" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1422">
@@ -18982,7 +18982,7 @@
         <v>6</v>
       </c>
       <c r="D1423">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1424">
@@ -18995,7 +18995,7 @@
         <v>6</v>
       </c>
       <c r="D1424">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1425">
@@ -19060,7 +19060,7 @@
         <v>6</v>
       </c>
       <c r="D1429">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1430">
@@ -19092,7 +19092,7 @@
     <row r="1432">
       <c r="B1432" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1432">
@@ -19105,20 +19105,20 @@
     <row r="1433">
       <c r="B1433" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1433">
         <v>6</v>
       </c>
       <c r="D1433">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1434">
       <c r="B1434" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1434">
@@ -19131,7 +19131,7 @@
     <row r="1435">
       <c r="B1435" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1435">
@@ -19144,7 +19144,7 @@
     <row r="1436">
       <c r="B1436" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1436">
@@ -19390,7 +19390,7 @@
         <v>6</v>
       </c>
       <c r="D1454">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1455">
@@ -19700,7 +19700,7 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1478">
@@ -19720,7 +19720,7 @@
         <v>6</v>
       </c>
       <c r="D1479">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1480">
@@ -20256,7 +20256,7 @@
     <row r="1520">
       <c r="B1520" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1520">
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1527">
@@ -20372,13 +20372,13 @@
         <v>6</v>
       </c>
       <c r="D1528">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1529">
       <c r="B1529" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1529">
@@ -20391,7 +20391,7 @@
     <row r="1530">
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1530">
@@ -20456,7 +20456,7 @@
     <row r="1535">
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1535">
@@ -20560,14 +20560,14 @@
     <row r="1543">
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1543">
         <v>6</v>
       </c>
       <c r="D1543">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1544">
@@ -20586,7 +20586,7 @@
     <row r="1545">
       <c r="B1545" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1545">
@@ -20599,7 +20599,7 @@
     <row r="1546">
       <c r="B1546" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1546">
@@ -20638,7 +20638,7 @@
     <row r="1549">
       <c r="B1549" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1549">
@@ -20716,14 +20716,14 @@
     <row r="1555">
       <c r="B1555" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1555">
         <v>6</v>
       </c>
       <c r="D1555">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1556">
@@ -20794,7 +20794,7 @@
     <row r="1561">
       <c r="B1561" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1561">
@@ -20833,7 +20833,7 @@
     <row r="1564">
       <c r="B1564" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1564">
@@ -20866,7 +20866,7 @@
         <v>60</v>
       </c>
       <c r="D1566">
-        <v>0.0009600153602457639</v>
+        <v>0.000960015360245764</v>
       </c>
     </row>
     <row r="1567">
@@ -20970,7 +20970,7 @@
         <v>6</v>
       </c>
       <c r="D1574">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1575">
@@ -20989,7 +20989,7 @@
     <row r="1576">
       <c r="B1576" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1576">
@@ -21111,7 +21111,7 @@
     <row r="1585">
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1585">
@@ -21163,7 +21163,7 @@
     <row r="1589">
       <c r="B1589" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1589">
@@ -21183,7 +21183,7 @@
         <v>6</v>
       </c>
       <c r="D1590">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1591">
@@ -21319,7 +21319,7 @@
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1601">
@@ -21345,7 +21345,7 @@
     <row r="1603">
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1603">
@@ -21397,7 +21397,7 @@
     <row r="1607">
       <c r="B1607" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1607">
@@ -21423,14 +21423,14 @@
     <row r="1609">
       <c r="B1609" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1609">
         <v>6</v>
       </c>
       <c r="D1609">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1610">
@@ -21508,7 +21508,7 @@
         <v>6</v>
       </c>
       <c r="D1615">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1616">
@@ -21644,7 +21644,7 @@
     <row r="1626">
       <c r="B1626" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1626">
@@ -21657,7 +21657,7 @@
     <row r="1627">
       <c r="B1627" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1627">
@@ -21865,7 +21865,7 @@
     <row r="1643">
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1643">
@@ -21878,7 +21878,7 @@
     <row r="1644">
       <c r="B1644" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1644">
@@ -21891,7 +21891,7 @@
     <row r="1645">
       <c r="B1645" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1645">
@@ -21943,7 +21943,7 @@
     <row r="1649">
       <c r="B1649" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1649">
@@ -21956,7 +21956,7 @@
     <row r="1650">
       <c r="B1650" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1650">
@@ -21969,7 +21969,7 @@
     <row r="1651">
       <c r="B1651" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1651">
@@ -21982,7 +21982,7 @@
     <row r="1652">
       <c r="B1652" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1652">
@@ -22041,7 +22041,7 @@
         <v>6</v>
       </c>
       <c r="D1656">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1657">
@@ -22112,7 +22112,7 @@
     <row r="1662">
       <c r="B1662" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1662">
@@ -22151,7 +22151,7 @@
     <row r="1665">
       <c r="B1665" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1665">
@@ -22190,7 +22190,7 @@
     <row r="1668">
       <c r="B1668" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1668">
@@ -22203,7 +22203,7 @@
     <row r="1669">
       <c r="B1669" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1669">
@@ -22255,7 +22255,7 @@
     <row r="1673">
       <c r="B1673" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1673">
@@ -22275,13 +22275,13 @@
         <v>6</v>
       </c>
       <c r="D1674">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1675">
       <c r="B1675" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1675">
@@ -22333,7 +22333,7 @@
     <row r="1679">
       <c r="B1679" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1679">
@@ -22476,7 +22476,7 @@
     <row r="1690">
       <c r="B1690" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1690">
@@ -22528,7 +22528,7 @@
     <row r="1694">
       <c r="B1694" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1694">
@@ -22541,7 +22541,7 @@
     <row r="1695">
       <c r="B1695" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1695">
@@ -22593,7 +22593,7 @@
     <row r="1699">
       <c r="B1699" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1699">
@@ -22736,7 +22736,7 @@
     <row r="1710">
       <c r="B1710" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1710">
@@ -22762,7 +22762,7 @@
     <row r="1712">
       <c r="B1712" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1712">
@@ -22847,13 +22847,13 @@
         <v>6</v>
       </c>
       <c r="D1718">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1719">
       <c r="B1719" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1719">
@@ -23100,7 +23100,7 @@
     <row r="1738">
       <c r="B1738" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1738">
@@ -23269,7 +23269,7 @@
     <row r="1751">
       <c r="B1751" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1751">
@@ -23399,7 +23399,7 @@
     <row r="1761">
       <c r="B1761" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1761">
@@ -23591,7 +23591,7 @@
     <row r="1775">
       <c r="B1775" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1775">
@@ -23617,7 +23617,7 @@
     <row r="1777">
       <c r="B1777" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1777">
@@ -23643,7 +23643,7 @@
     <row r="1779">
       <c r="B1779" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1779">
@@ -23786,7 +23786,7 @@
     <row r="1790">
       <c r="B1790" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1790">
@@ -23819,7 +23819,7 @@
         <v>6</v>
       </c>
       <c r="D1792">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1793">
@@ -23864,7 +23864,7 @@
     <row r="1796">
       <c r="B1796" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1796">
@@ -23929,7 +23929,7 @@
     <row r="1801">
       <c r="B1801" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1801">
@@ -23942,7 +23942,7 @@
     <row r="1802">
       <c r="B1802" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1802">
@@ -23955,7 +23955,7 @@
     <row r="1803">
       <c r="B1803" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1803">
@@ -24098,7 +24098,7 @@
     <row r="1814">
       <c r="B1814" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1814">
@@ -24111,7 +24111,7 @@
     <row r="1815">
       <c r="B1815" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1815">
@@ -24137,7 +24137,7 @@
     <row r="1817">
       <c r="B1817" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1817">
@@ -24176,7 +24176,7 @@
     <row r="1820">
       <c r="B1820" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1820">
@@ -24196,7 +24196,7 @@
         <v>6</v>
       </c>
       <c r="D1821">
-        <v>9.600153602457639E-05</v>
+        <v>9.60015360245764E-05</v>
       </c>
     </row>
     <row r="1822">
@@ -24275,41 +24275,6 @@
       </c>
       <c r="D1827">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1829">
-      <c r="A1829" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1830">
-      <c r="A1830" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1831">
-      <c r="A1831" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1832">
-      <c r="A1832" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1833">
-      <c r="A1833" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
